--- a/links-to-follow-up.xlsx
+++ b/links-to-follow-up.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\shaun-mcgirr-dissertation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="9040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Link</t>
   </si>
@@ -120,6 +118,9 @@
   </si>
   <si>
     <t>https://github.com/idalab/clearspending-examples/wiki/</t>
+  </si>
+  <si>
+    <t>Write up (or not bother because creates new dataset?)</t>
   </si>
 </sst>
 </file>
@@ -238,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,7 +274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,17 +462,17 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -497,7 +498,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -505,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -519,7 +520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -530,7 +531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -541,7 +542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -552,7 +553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -563,7 +564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -574,7 +575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -585,7 +586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -610,6 +611,11 @@
     <hyperlink ref="A11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>